--- a/Python_DA/Parameters.xlsx
+++ b/Python_DA/Parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trainings\Cubix\Python_DA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltehu-my.sharepoint.com/personal/istvan_zsely_ttk_elte_hu/Documents/otthon/Cubix data engineer/programs/Python_DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8300B820-C8F7-4392-B291-3F9179C288AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8300B820-C8F7-4392-B291-3F9179C288AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{538F48CB-2DEC-4094-93B9-D465E4C0C788}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="-8310" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="2520" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter tables" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,10 @@
     <t>Vendeur</t>
   </si>
   <si>
-    <t>D:\Trainings\Cubix\Python_DA\Input</t>
-  </si>
-  <si>
     <t>Input folder path</t>
+  </si>
+  <si>
+    <t>Input</t>
   </si>
 </sst>
 </file>
@@ -313,7 +313,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,27 +602,27 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="12" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="12" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>49</v>
@@ -646,12 +646,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>47</v>
@@ -675,12 +675,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -704,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>47</v>
       </c>
@@ -727,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>48</v>
       </c>
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>48</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>48</v>
       </c>
@@ -796,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>35</v>
       </c>
@@ -813,7 +813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>21</v>
       </c>
@@ -830,7 +830,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -847,7 +847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>23</v>
       </c>
@@ -864,7 +864,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>39</v>
       </c>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>31</v>
       </c>
@@ -898,7 +898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>32</v>
       </c>
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>34</v>
       </c>
@@ -932,7 +932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>24</v>
       </c>
@@ -949,7 +949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>25</v>
       </c>
@@ -966,7 +966,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>40</v>
       </c>
@@ -974,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>36</v>
       </c>
@@ -982,7 +982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>26</v>
       </c>
@@ -990,7 +990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>41</v>
       </c>
@@ -998,7 +998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>33</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
         <v>27</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>28</v>
       </c>
